--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9436867-DEFD-4D98-BEAC-85DA26D97163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2BE23-3889-42CB-813F-6DF746DB9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2BE23-3889-42CB-813F-6DF746DB9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F084F08-4025-4979-95D7-CD84C013C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -254,36 +254,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -431,6 +401,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -438,18 +417,39 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A1:G17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A1:G17" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G17" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -477,13 +477,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -789,7 +789,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,6 +1160,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -1368,15 +1377,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1384,6 +1384,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1398,14 +1406,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F084F08-4025-4979-95D7-CD84C013C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3CDC9-29C1-4AF6-A0E9-2D4690CF9B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>dataset</t>
   </si>
@@ -78,13 +78,34 @@
   </si>
   <si>
     <t>90%</t>
+  </si>
+  <si>
+    <t>Banded delete</t>
+  </si>
+  <si>
+    <t>square filter</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +123,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -230,11 +258,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -248,17 +428,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
-        <right/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -326,6 +531,96 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -466,8 +761,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A1:G17" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G17" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:L18" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A2:L18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -475,14 +770,24 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="1"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -786,110 +1091,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="28">
         <v>30</v>
       </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>31</v>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>39</v>
       </c>
       <c r="D4" s="1">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="E4" s="1">
-        <v>28</v>
-      </c>
       <c r="F4" s="1">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="22">
+        <v>26</v>
+      </c>
+      <c r="H4" s="17">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>29</v>
+      </c>
+      <c r="L4" s="28">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30</v>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>31</v>
@@ -898,259 +1234,467 @@
         <v>34</v>
       </c>
       <c r="F5" s="1">
+        <v>34</v>
+      </c>
+      <c r="G5" s="22">
+        <v>28</v>
+      </c>
+      <c r="H5" s="17">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5">
+        <v>33</v>
+      </c>
+      <c r="L5" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24</v>
+      </c>
+      <c r="G6" s="22">
+        <v>23</v>
+      </c>
+      <c r="H6" s="17">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5">
         <v>27</v>
       </c>
-      <c r="G5" s="5">
+      <c r="L6" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="28">
         <v>150</v>
       </c>
-      <c r="D7" s="1">
-        <v>150</v>
-      </c>
-      <c r="E7" s="1">
-        <v>147</v>
-      </c>
-      <c r="F7" s="1">
-        <v>143</v>
-      </c>
-      <c r="G7" s="5">
-        <v>150</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>150</v>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>192</v>
       </c>
       <c r="D8" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1">
         <v>146</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="22">
+        <v>121</v>
+      </c>
+      <c r="H8" s="17">
         <v>150</v>
       </c>
+      <c r="I8" s="1">
+        <v>150</v>
+      </c>
+      <c r="J8" s="1">
+        <v>147</v>
+      </c>
+      <c r="K8" s="5">
+        <v>143</v>
+      </c>
+      <c r="L8" s="28">
+        <v>150</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>195</v>
+      </c>
+      <c r="D9" s="1">
+        <v>176</v>
+      </c>
+      <c r="E9" s="1">
+        <v>162</v>
+      </c>
+      <c r="F9" s="1">
+        <v>162</v>
+      </c>
+      <c r="G9" s="22">
+        <v>126</v>
+      </c>
+      <c r="H9" s="17">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <v>150</v>
+      </c>
+      <c r="J9" s="1">
+        <v>150</v>
+      </c>
+      <c r="K9" s="5">
+        <v>146</v>
+      </c>
+      <c r="L9" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="17">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1">
+        <v>173</v>
+      </c>
+      <c r="E10" s="1">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1">
+        <v>139</v>
+      </c>
+      <c r="G10" s="22">
+        <v>101</v>
+      </c>
+      <c r="H10" s="17">
         <v>150</v>
       </c>
-      <c r="D9" s="1">
+      <c r="I10" s="1">
         <v>150</v>
       </c>
-      <c r="E9" s="1">
+      <c r="J10" s="1">
         <v>150</v>
       </c>
-      <c r="F9" s="1">
+      <c r="K10" s="5">
         <v>139</v>
       </c>
-      <c r="G9" s="5">
+      <c r="L10" s="28">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
-        <v>39</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="22">
+        <v>14</v>
+      </c>
+      <c r="H12" s="17">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1">
         <v>40</v>
       </c>
-      <c r="F12" s="1">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="K12" s="5">
+        <v>39</v>
+      </c>
+      <c r="L12" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19</v>
+      </c>
+      <c r="G13" s="22">
+        <v>17</v>
+      </c>
+      <c r="H13" s="17">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40</v>
+      </c>
+      <c r="K13" s="5">
+        <v>52</v>
+      </c>
+      <c r="L13" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="17">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+      <c r="G14" s="22">
+        <v>14</v>
+      </c>
+      <c r="H14" s="17">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
+      <c r="J14" s="1">
         <v>43</v>
       </c>
-      <c r="F13" s="1">
+      <c r="K14" s="5">
         <v>52</v>
       </c>
-      <c r="G13" s="5">
+      <c r="L14" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>115</v>
-      </c>
-      <c r="D15" s="1">
-        <v>126</v>
-      </c>
-      <c r="E15" s="1">
-        <v>122</v>
-      </c>
-      <c r="F15" s="1">
-        <v>86</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="28">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>165</v>
+      </c>
+      <c r="D16" s="1">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1">
+        <v>138</v>
+      </c>
+      <c r="G16" s="22">
+        <v>133</v>
+      </c>
+      <c r="H16" s="17">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1">
+        <v>126</v>
+      </c>
+      <c r="J16" s="1">
+        <v>122</v>
+      </c>
+      <c r="K16" s="5">
+        <v>86</v>
+      </c>
+      <c r="L16" s="28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="17">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1">
+        <v>151</v>
+      </c>
+      <c r="G17" s="22">
+        <v>127</v>
+      </c>
+      <c r="H17" s="17">
         <v>115</v>
       </c>
-      <c r="D16" s="1">
+      <c r="I17" s="1">
         <v>132</v>
       </c>
-      <c r="E16" s="1">
+      <c r="J17" s="1">
         <v>122</v>
       </c>
-      <c r="F16" s="1">
+      <c r="K17" s="5">
         <v>115</v>
       </c>
-      <c r="G16" s="5">
+      <c r="L17" s="28">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="18">
+        <v>144</v>
+      </c>
+      <c r="D18" s="8">
+        <v>139</v>
+      </c>
+      <c r="E18" s="8">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8">
+        <v>39</v>
+      </c>
+      <c r="G18" s="23">
+        <v>30</v>
+      </c>
+      <c r="H18" s="18">
         <v>125</v>
       </c>
-      <c r="D17" s="8">
+      <c r="I18" s="8">
         <v>128</v>
       </c>
-      <c r="E17" s="8">
+      <c r="J18" s="8">
         <v>109</v>
       </c>
-      <c r="F17" s="8">
+      <c r="K18" s="9">
         <v>95</v>
       </c>
-      <c r="G17" s="9">
+      <c r="L18" s="29">
         <v>112</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -1160,15 +1704,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -1377,6 +1912,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1384,14 +1928,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1406,6 +1942,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3CDC9-29C1-4AF6-A0E9-2D4690CF9B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA13811-4679-4DE0-9C3D-F52784E0D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>dataset</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>0.35</t>
+  </si>
+  <si>
+    <t>diletation - erosion</t>
+  </si>
+  <si>
+    <t>3x3 unit</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -410,11 +416,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -431,16 +466,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -451,11 +480,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -530,7 +585,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="thick">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -548,7 +603,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -761,8 +816,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:L18" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A2:L18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:M18" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A2:M18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -775,20 +830,22 @@
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="0"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,33 +1161,37 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="26"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1142,51 +1203,55 @@
       <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="28">
+      <c r="K3" s="2"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>39</v>
       </c>
       <c r="D4" s="1">
@@ -1198,33 +1263,36 @@
       <c r="F4" s="1">
         <v>32</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>26</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="33">
+        <v>38</v>
+      </c>
+      <c r="I4" s="16">
         <v>29</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>30</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="1">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5">
         <v>29</v>
       </c>
-      <c r="L4" s="28">
+      <c r="M4" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>39</v>
       </c>
       <c r="D5" s="1">
@@ -1236,33 +1304,36 @@
       <c r="F5" s="1">
         <v>34</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>28</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="33">
+        <v>37</v>
+      </c>
+      <c r="I5" s="16">
         <v>31</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>32</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>28</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>33</v>
       </c>
-      <c r="L5" s="28">
+      <c r="M5" s="26">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>41</v>
       </c>
       <c r="D6" s="1">
@@ -1274,51 +1345,55 @@
       <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>23</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="33">
+        <v>37</v>
+      </c>
+      <c r="I6" s="16">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>31</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>34</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="L6" s="28">
+      <c r="M6" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="28">
+      <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>192</v>
       </c>
       <c r="D8" s="1">
@@ -1330,33 +1405,36 @@
       <c r="F8" s="1">
         <v>146</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>121</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="33">
+        <v>151</v>
+      </c>
+      <c r="I8" s="16">
         <v>150</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>150</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>147</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>143</v>
       </c>
-      <c r="L8" s="28">
+      <c r="M8" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>195</v>
       </c>
       <c r="D9" s="1">
@@ -1368,33 +1446,36 @@
       <c r="F9" s="1">
         <v>162</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>126</v>
       </c>
-      <c r="H9" s="17">
-        <v>150</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="33">
+        <v>149</v>
+      </c>
+      <c r="I9" s="16">
         <v>150</v>
       </c>
       <c r="J9" s="1">
         <v>150</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="1">
+        <v>150</v>
+      </c>
+      <c r="L9" s="5">
         <v>146</v>
       </c>
-      <c r="L9" s="28">
+      <c r="M9" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>192</v>
       </c>
       <c r="D10" s="1">
@@ -1406,51 +1487,55 @@
       <c r="F10" s="1">
         <v>139</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>101</v>
       </c>
-      <c r="H10" s="17">
-        <v>150</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="33">
+        <v>152</v>
+      </c>
+      <c r="I10" s="16">
         <v>150</v>
       </c>
       <c r="J10" s="1">
         <v>150</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="1">
+        <v>150</v>
+      </c>
+      <c r="L10" s="5">
         <v>139</v>
       </c>
-      <c r="L10" s="28">
+      <c r="M10" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="28">
+      <c r="K11" s="1"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>23</v>
       </c>
       <c r="D12" s="1">
@@ -1462,33 +1547,36 @@
       <c r="F12" s="1">
         <v>18</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>14</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="33">
+        <v>26</v>
+      </c>
+      <c r="I12" s="16">
         <v>31</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>45</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>40</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>39</v>
       </c>
-      <c r="L12" s="28">
+      <c r="M12" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>25</v>
       </c>
       <c r="D13" s="1">
@@ -1500,33 +1588,36 @@
       <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="20">
         <v>17</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="33">
+        <v>23</v>
+      </c>
+      <c r="I13" s="16">
         <v>26</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>32</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>40</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>52</v>
       </c>
-      <c r="L13" s="28">
+      <c r="M13" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>27</v>
       </c>
       <c r="D14" s="1">
@@ -1538,51 +1629,55 @@
       <c r="F14" s="1">
         <v>18</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>14</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="33">
+        <v>25</v>
+      </c>
+      <c r="I14" s="16">
         <v>27</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>34</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>43</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>52</v>
       </c>
-      <c r="L14" s="28">
+      <c r="M14" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="28">
+      <c r="K15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>165</v>
       </c>
       <c r="D16" s="1">
@@ -1594,33 +1689,36 @@
       <c r="F16" s="1">
         <v>138</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <v>133</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="33">
+        <v>148</v>
+      </c>
+      <c r="I16" s="16">
         <v>115</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>126</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>122</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>86</v>
       </c>
-      <c r="L16" s="28">
+      <c r="M16" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>175</v>
       </c>
       <c r="D17" s="1">
@@ -1632,33 +1730,36 @@
       <c r="F17" s="1">
         <v>151</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>127</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="33">
+        <v>158</v>
+      </c>
+      <c r="I17" s="16">
         <v>115</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>132</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>122</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>115</v>
       </c>
-      <c r="L17" s="28">
+      <c r="M17" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>144</v>
       </c>
       <c r="D18" s="8">
@@ -1670,28 +1771,31 @@
       <c r="F18" s="8">
         <v>39</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>30</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="31">
+        <v>144</v>
+      </c>
+      <c r="I18" s="17">
         <v>125</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>128</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>109</v>
       </c>
-      <c r="K18" s="9">
+      <c r="L18" s="9">
         <v>95</v>
       </c>
-      <c r="L18" s="29">
+      <c r="M18" s="27">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1704,6 +1808,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -1912,15 +2025,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1928,6 +2032,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1942,14 +2054,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA13811-4679-4DE0-9C3D-F52784E0D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D49844-E3A1-41E1-A7AD-672613876803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -480,6 +480,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,28 +492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -591,6 +577,20 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -840,12 +840,12 @@
     <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="7"/>
     <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,22 +1166,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       <c r="G2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -1235,7 +1235,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="15"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1266,7 +1266,7 @@
       <c r="G4" s="20">
         <v>26</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="30">
         <v>38</v>
       </c>
       <c r="I4" s="16">
@@ -1307,7 +1307,7 @@
       <c r="G5" s="20">
         <v>28</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="30">
         <v>37</v>
       </c>
       <c r="I5" s="16">
@@ -1348,7 +1348,7 @@
       <c r="G6" s="20">
         <v>23</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="30">
         <v>37</v>
       </c>
       <c r="I6" s="16">
@@ -1377,7 +1377,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="16"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1408,7 +1408,7 @@
       <c r="G8" s="20">
         <v>121</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="30">
         <v>151</v>
       </c>
       <c r="I8" s="16">
@@ -1449,7 +1449,7 @@
       <c r="G9" s="20">
         <v>126</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <v>149</v>
       </c>
       <c r="I9" s="16">
@@ -1490,7 +1490,7 @@
       <c r="G10" s="20">
         <v>101</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="30">
         <v>152</v>
       </c>
       <c r="I10" s="16">
@@ -1519,7 +1519,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="16"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="G12" s="20">
         <v>14</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="30">
         <v>26</v>
       </c>
       <c r="I12" s="16">
@@ -1591,7 +1591,7 @@
       <c r="G13" s="20">
         <v>17</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <v>23</v>
       </c>
       <c r="I13" s="16">
@@ -1632,7 +1632,7 @@
       <c r="G14" s="20">
         <v>14</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="30">
         <v>25</v>
       </c>
       <c r="I14" s="16">
@@ -1661,7 +1661,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="16"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="G16" s="20">
         <v>133</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="30">
         <v>148</v>
       </c>
       <c r="I16" s="16">
@@ -1733,7 +1733,7 @@
       <c r="G17" s="20">
         <v>127</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <v>158</v>
       </c>
       <c r="I17" s="16">
@@ -1774,7 +1774,7 @@
       <c r="G18" s="21">
         <v>30</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="28">
         <v>144</v>
       </c>
       <c r="I18" s="17">
@@ -1808,15 +1808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2025,6 +2016,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2032,14 +2032,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2054,6 +2046,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D49844-E3A1-41E1-A7AD-672613876803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884F854-C1A3-432E-A13F-4D4F5D47A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>dataset</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>3x3 unit</t>
+  </si>
+  <si>
+    <t>3x3 unit2</t>
+  </si>
+  <si>
+    <t>erosion-diletation</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -483,6 +489,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,7 +505,21 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -816,8 +839,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:M18" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A2:M18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:N18" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A2:N18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -831,21 +854,23 @@
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="0"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,30 +1186,34 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1209,23 +1238,26 @@
       <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1236,15 +1268,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="20"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="26">
+      <c r="L3" s="2"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1267,25 +1300,28 @@
         <v>26</v>
       </c>
       <c r="H4" s="30">
+        <v>31</v>
+      </c>
+      <c r="I4" s="30">
         <v>38</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>29</v>
-      </c>
-      <c r="J4" s="1">
-        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>30</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5">
         <v>29</v>
       </c>
-      <c r="M4" s="26">
+      <c r="N4" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1308,25 +1344,28 @@
         <v>28</v>
       </c>
       <c r="H5" s="30">
+        <v>31</v>
+      </c>
+      <c r="I5" s="30">
         <v>37</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J5" s="16">
         <v>31</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>32</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>28</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>33</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="26">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1349,25 +1388,28 @@
         <v>23</v>
       </c>
       <c r="H6" s="30">
+        <v>35</v>
+      </c>
+      <c r="I6" s="30">
         <v>37</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>31</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>34</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1378,15 +1420,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="20"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="26">
+      <c r="L7" s="1"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1409,25 +1452,28 @@
         <v>121</v>
       </c>
       <c r="H8" s="30">
+        <v>142</v>
+      </c>
+      <c r="I8" s="30">
         <v>151</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>150</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>150</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>147</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>143</v>
       </c>
-      <c r="M8" s="26">
+      <c r="N8" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1450,25 +1496,28 @@
         <v>126</v>
       </c>
       <c r="H9" s="30">
+        <v>142</v>
+      </c>
+      <c r="I9" s="30">
         <v>149</v>
       </c>
-      <c r="I9" s="16">
-        <v>150</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J9" s="16">
         <v>150</v>
       </c>
       <c r="K9" s="1">
         <v>150</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="1">
+        <v>150</v>
+      </c>
+      <c r="M9" s="5">
         <v>146</v>
       </c>
-      <c r="M9" s="26">
+      <c r="N9" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1491,25 +1540,28 @@
         <v>101</v>
       </c>
       <c r="H10" s="30">
+        <v>144</v>
+      </c>
+      <c r="I10" s="30">
         <v>152</v>
       </c>
-      <c r="I10" s="16">
-        <v>150</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="J10" s="16">
         <v>150</v>
       </c>
       <c r="K10" s="1">
         <v>150</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="1">
+        <v>150</v>
+      </c>
+      <c r="M10" s="5">
         <v>139</v>
       </c>
-      <c r="M10" s="26">
+      <c r="N10" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1520,15 +1572,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="20"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="26">
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1551,25 +1604,28 @@
         <v>14</v>
       </c>
       <c r="H12" s="30">
+        <v>25</v>
+      </c>
+      <c r="I12" s="30">
         <v>26</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>31</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>45</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>40</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>39</v>
       </c>
-      <c r="M12" s="26">
+      <c r="N12" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1592,25 +1648,28 @@
         <v>17</v>
       </c>
       <c r="H13" s="30">
+        <v>24</v>
+      </c>
+      <c r="I13" s="30">
         <v>23</v>
       </c>
-      <c r="I13" s="16">
+      <c r="J13" s="16">
         <v>26</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>32</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>40</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>52</v>
       </c>
-      <c r="M13" s="26">
+      <c r="N13" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1633,25 +1692,28 @@
         <v>14</v>
       </c>
       <c r="H14" s="30">
+        <v>27</v>
+      </c>
+      <c r="I14" s="30">
         <v>25</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>27</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>34</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>43</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>52</v>
       </c>
-      <c r="M14" s="26">
+      <c r="N14" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1662,15 +1724,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="20"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="26">
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1693,25 +1756,28 @@
         <v>133</v>
       </c>
       <c r="H16" s="30">
+        <v>125</v>
+      </c>
+      <c r="I16" s="30">
         <v>148</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>115</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>126</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>122</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>86</v>
       </c>
-      <c r="M16" s="26">
+      <c r="N16" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1734,25 +1800,28 @@
         <v>127</v>
       </c>
       <c r="H17" s="30">
+        <v>129</v>
+      </c>
+      <c r="I17" s="30">
         <v>158</v>
       </c>
-      <c r="I17" s="16">
+      <c r="J17" s="16">
         <v>115</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>132</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>122</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>115</v>
       </c>
-      <c r="M17" s="26">
+      <c r="N17" s="26">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1775,27 +1844,30 @@
         <v>30</v>
       </c>
       <c r="H18" s="28">
+        <v>133</v>
+      </c>
+      <c r="I18" s="28">
         <v>144</v>
       </c>
-      <c r="I18" s="17">
+      <c r="J18" s="17">
         <v>125</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>128</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>109</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>95</v>
       </c>
-      <c r="M18" s="27">
+      <c r="N18" s="27">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1808,6 +1880,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2016,15 +2097,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2032,6 +2104,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2046,14 +2126,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884F854-C1A3-432E-A13F-4D4F5D47A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2CDB3-F95F-487C-BC18-4763E50D5B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>dataset</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>erosion-diletation</t>
+  </si>
+  <si>
+    <t>3x3 col</t>
+  </si>
+  <si>
+    <t>3x3 col2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -469,9 +475,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -489,9 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,7 +505,21 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -600,6 +614,20 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -839,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:N18" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A2:N18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:P18" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A2:P18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -855,22 +883,26 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="1"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,41 +1218,45 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1" s="32" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="24"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1232,59 +1268,67 @@
       <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="26">
+      <c r="G3" s="19"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>39</v>
       </c>
       <c r="D4" s="1">
@@ -1296,39 +1340,45 @@
       <c r="F4" s="1">
         <v>32</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>26</v>
       </c>
-      <c r="H4" s="30">
-        <v>31</v>
-      </c>
-      <c r="I4" s="30">
+      <c r="H4" s="29">
+        <v>36</v>
+      </c>
+      <c r="I4" s="29">
+        <v>37</v>
+      </c>
+      <c r="J4" s="29">
+        <v>32</v>
+      </c>
+      <c r="K4" s="29">
         <v>38</v>
       </c>
-      <c r="J4" s="16">
+      <c r="L4" s="15">
         <v>29</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>30</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>30</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="5">
         <v>29</v>
       </c>
-      <c r="N4" s="26">
+      <c r="P4" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>39</v>
       </c>
       <c r="D5" s="1">
@@ -1340,39 +1390,45 @@
       <c r="F5" s="1">
         <v>34</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>28</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
+        <v>36</v>
+      </c>
+      <c r="I5" s="29">
+        <v>38</v>
+      </c>
+      <c r="J5" s="29">
+        <v>37</v>
+      </c>
+      <c r="K5" s="29">
+        <v>37</v>
+      </c>
+      <c r="L5" s="15">
         <v>31</v>
       </c>
-      <c r="I5" s="30">
-        <v>37</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="M5" s="1">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1">
+        <v>28</v>
+      </c>
+      <c r="O5" s="5">
+        <v>33</v>
+      </c>
+      <c r="P5" s="25">
         <v>31</v>
       </c>
-      <c r="K5" s="1">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1">
-        <v>28</v>
-      </c>
-      <c r="M5" s="5">
-        <v>33</v>
-      </c>
-      <c r="N5" s="26">
-        <v>31</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>41</v>
       </c>
       <c r="D6" s="1">
@@ -1384,59 +1440,67 @@
       <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>23</v>
       </c>
-      <c r="H6" s="30">
-        <v>35</v>
-      </c>
-      <c r="I6" s="30">
+      <c r="H6" s="29">
         <v>37</v>
       </c>
-      <c r="J6" s="16">
+      <c r="I6" s="29">
+        <v>40</v>
+      </c>
+      <c r="J6" s="29">
+        <v>33</v>
+      </c>
+      <c r="K6" s="29">
+        <v>37</v>
+      </c>
+      <c r="L6" s="15">
         <v>30</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>34</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <v>27</v>
       </c>
-      <c r="N6" s="26">
+      <c r="P6" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="26">
+      <c r="G7" s="19"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>192</v>
       </c>
       <c r="D8" s="1">
@@ -1448,39 +1512,45 @@
       <c r="F8" s="1">
         <v>146</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>121</v>
       </c>
-      <c r="H8" s="30">
-        <v>142</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="H8" s="29">
+        <v>176</v>
+      </c>
+      <c r="I8" s="29">
+        <v>143</v>
+      </c>
+      <c r="J8" s="29">
+        <v>159</v>
+      </c>
+      <c r="K8" s="29">
         <v>151</v>
       </c>
-      <c r="J8" s="16">
+      <c r="L8" s="15">
         <v>150</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>150</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>147</v>
       </c>
-      <c r="M8" s="5">
+      <c r="O8" s="5">
         <v>143</v>
       </c>
-      <c r="N8" s="26">
+      <c r="P8" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>195</v>
       </c>
       <c r="D9" s="1">
@@ -1492,39 +1562,45 @@
       <c r="F9" s="1">
         <v>162</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>126</v>
       </c>
-      <c r="H9" s="30">
-        <v>142</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="H9" s="29">
+        <v>175</v>
+      </c>
+      <c r="I9" s="29">
+        <v>144</v>
+      </c>
+      <c r="J9" s="29">
+        <v>157</v>
+      </c>
+      <c r="K9" s="29">
         <v>149</v>
       </c>
-      <c r="J9" s="16">
+      <c r="L9" s="15">
         <v>150</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>150</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>150</v>
       </c>
-      <c r="M9" s="5">
+      <c r="O9" s="5">
         <v>146</v>
       </c>
-      <c r="N9" s="26">
+      <c r="P9" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>192</v>
       </c>
       <c r="D10" s="1">
@@ -1536,59 +1612,67 @@
       <c r="F10" s="1">
         <v>139</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>101</v>
       </c>
-      <c r="H10" s="30">
-        <v>144</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="H10" s="29">
+        <v>177</v>
+      </c>
+      <c r="I10" s="29">
+        <v>143</v>
+      </c>
+      <c r="J10" s="29">
+        <v>160</v>
+      </c>
+      <c r="K10" s="29">
         <v>152</v>
       </c>
-      <c r="J10" s="16">
+      <c r="L10" s="15">
         <v>150</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>150</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>150</v>
       </c>
-      <c r="M10" s="5">
+      <c r="O10" s="5">
         <v>139</v>
       </c>
-      <c r="N10" s="26">
+      <c r="P10" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="26">
+      <c r="G11" s="19"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>23</v>
       </c>
       <c r="D12" s="1">
@@ -1600,39 +1684,45 @@
       <c r="F12" s="1">
         <v>18</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>14</v>
       </c>
-      <c r="H12" s="30">
-        <v>25</v>
-      </c>
-      <c r="I12" s="30">
+      <c r="H12" s="29">
+        <v>13</v>
+      </c>
+      <c r="I12" s="29">
+        <v>31</v>
+      </c>
+      <c r="J12" s="29">
+        <v>15</v>
+      </c>
+      <c r="K12" s="29">
         <v>26</v>
       </c>
-      <c r="J12" s="16">
+      <c r="L12" s="15">
         <v>31</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>45</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>40</v>
       </c>
-      <c r="M12" s="5">
+      <c r="O12" s="5">
         <v>39</v>
       </c>
-      <c r="N12" s="26">
+      <c r="P12" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>25</v>
       </c>
       <c r="D13" s="1">
@@ -1644,39 +1734,45 @@
       <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>17</v>
       </c>
-      <c r="H13" s="30">
-        <v>24</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="H13" s="29">
+        <v>15</v>
+      </c>
+      <c r="I13" s="29">
+        <v>36</v>
+      </c>
+      <c r="J13" s="29">
+        <v>18</v>
+      </c>
+      <c r="K13" s="29">
         <v>23</v>
       </c>
-      <c r="J13" s="16">
+      <c r="L13" s="15">
         <v>26</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>32</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>40</v>
       </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <v>52</v>
       </c>
-      <c r="N13" s="26">
+      <c r="P13" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>27</v>
       </c>
       <c r="D14" s="1">
@@ -1688,59 +1784,67 @@
       <c r="F14" s="1">
         <v>18</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>14</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
+        <v>17</v>
+      </c>
+      <c r="I14" s="29">
+        <v>33</v>
+      </c>
+      <c r="J14" s="29">
+        <v>15</v>
+      </c>
+      <c r="K14" s="29">
+        <v>25</v>
+      </c>
+      <c r="L14" s="15">
         <v>27</v>
       </c>
-      <c r="I14" s="30">
-        <v>25</v>
-      </c>
-      <c r="J14" s="16">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>34</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>43</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="5">
         <v>52</v>
       </c>
-      <c r="N14" s="26">
+      <c r="P14" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="26">
+      <c r="G15" s="19"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>165</v>
       </c>
       <c r="D16" s="1">
@@ -1752,39 +1856,45 @@
       <c r="F16" s="1">
         <v>138</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>133</v>
       </c>
-      <c r="H16" s="30">
-        <v>125</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="H16" s="29">
+        <v>161</v>
+      </c>
+      <c r="I16" s="29">
+        <v>169</v>
+      </c>
+      <c r="J16" s="29">
+        <v>157</v>
+      </c>
+      <c r="K16" s="29">
         <v>148</v>
       </c>
-      <c r="J16" s="16">
+      <c r="L16" s="15">
         <v>115</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>126</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>122</v>
       </c>
-      <c r="M16" s="5">
+      <c r="O16" s="5">
         <v>86</v>
       </c>
-      <c r="N16" s="26">
+      <c r="P16" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>175</v>
       </c>
       <c r="D17" s="1">
@@ -1796,39 +1906,45 @@
       <c r="F17" s="1">
         <v>151</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>127</v>
       </c>
-      <c r="H17" s="30">
-        <v>129</v>
-      </c>
-      <c r="I17" s="30">
+      <c r="H17" s="29">
         <v>158</v>
       </c>
-      <c r="J17" s="16">
+      <c r="I17" s="29">
+        <v>162</v>
+      </c>
+      <c r="J17" s="29">
+        <v>150</v>
+      </c>
+      <c r="K17" s="29">
+        <v>158</v>
+      </c>
+      <c r="L17" s="15">
         <v>115</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>132</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>122</v>
       </c>
-      <c r="M17" s="5">
+      <c r="O17" s="5">
         <v>115</v>
       </c>
-      <c r="N17" s="26">
+      <c r="P17" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>144</v>
       </c>
       <c r="D18" s="8">
@@ -1840,35 +1956,43 @@
       <c r="F18" s="8">
         <v>39</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>30</v>
       </c>
-      <c r="H18" s="28">
-        <v>133</v>
-      </c>
-      <c r="I18" s="28">
+      <c r="H18" s="27">
+        <v>162</v>
+      </c>
+      <c r="I18" s="27">
+        <v>155</v>
+      </c>
+      <c r="J18" s="27">
+        <v>152</v>
+      </c>
+      <c r="K18" s="27">
         <v>144</v>
       </c>
-      <c r="J18" s="17">
+      <c r="L18" s="16">
         <v>125</v>
       </c>
-      <c r="K18" s="8">
+      <c r="M18" s="8">
         <v>128</v>
       </c>
-      <c r="L18" s="8">
+      <c r="N18" s="8">
         <v>109</v>
       </c>
-      <c r="M18" s="9">
+      <c r="O18" s="9">
         <v>95</v>
       </c>
-      <c r="N18" s="27">
+      <c r="P18" s="26">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="4">
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1880,15 +2004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2097,6 +2212,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2104,14 +2228,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2126,6 +2242,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2CDB3-F95F-487C-BC18-4763E50D5B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE937D-4D44-445E-BB6B-C951CFC0FE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
+    <workbookView xWindow="5760" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>dataset</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>3x3 col2</t>
+  </si>
+  <si>
+    <t>3x2 col</t>
+  </si>
+  <si>
+    <t>3x2 col2</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -614,6 +620,34 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -867,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:P18" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A2:P18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:R18" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A2:R18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -885,18 +919,22 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="0"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{A0558FA7-C629-4D37-AF8A-5AFA679C3F74}" name="3x2 col" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{61AE01E0-46B1-4BDB-B74F-B23A8F430321}" name="3x2 col2" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="5"/>
@@ -1205,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,14 +1256,14 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
@@ -1237,19 +1275,21 @@
         <v>24</v>
       </c>
       <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="23"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1275,31 +1315,37 @@
         <v>25</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1313,15 +1359,17 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="25">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1347,31 +1395,37 @@
         <v>36</v>
       </c>
       <c r="I4" s="29">
+        <v>29</v>
+      </c>
+      <c r="J4" s="29">
         <v>37</v>
       </c>
-      <c r="J4" s="29">
+      <c r="K4" s="29">
         <v>32</v>
       </c>
-      <c r="K4" s="29">
+      <c r="L4" s="29">
+        <v>30</v>
+      </c>
+      <c r="M4" s="29">
         <v>38</v>
       </c>
-      <c r="L4" s="15">
+      <c r="N4" s="15">
         <v>29</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>30</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>30</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q4" s="5">
         <v>29</v>
       </c>
-      <c r="P4" s="25">
+      <c r="R4" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1397,31 +1451,37 @@
         <v>36</v>
       </c>
       <c r="I5" s="29">
+        <v>29</v>
+      </c>
+      <c r="J5" s="29">
         <v>38</v>
-      </c>
-      <c r="J5" s="29">
-        <v>37</v>
       </c>
       <c r="K5" s="29">
         <v>37</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="29">
+        <v>29</v>
+      </c>
+      <c r="M5" s="29">
+        <v>37</v>
+      </c>
+      <c r="N5" s="15">
         <v>31</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>32</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>28</v>
       </c>
-      <c r="O5" s="5">
+      <c r="Q5" s="5">
         <v>33</v>
       </c>
-      <c r="P5" s="25">
+      <c r="R5" s="25">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1447,31 +1507,37 @@
         <v>37</v>
       </c>
       <c r="I6" s="29">
+        <v>25</v>
+      </c>
+      <c r="J6" s="29">
         <v>40</v>
       </c>
-      <c r="J6" s="29">
+      <c r="K6" s="29">
         <v>33</v>
       </c>
-      <c r="K6" s="29">
+      <c r="L6" s="29">
+        <v>28</v>
+      </c>
+      <c r="M6" s="29">
         <v>37</v>
       </c>
-      <c r="L6" s="15">
+      <c r="N6" s="15">
         <v>30</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>31</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>34</v>
       </c>
-      <c r="O6" s="5">
+      <c r="Q6" s="5">
         <v>27</v>
       </c>
-      <c r="P6" s="25">
+      <c r="R6" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1485,15 +1551,17 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="25">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1519,31 +1587,37 @@
         <v>176</v>
       </c>
       <c r="I8" s="29">
+        <v>146</v>
+      </c>
+      <c r="J8" s="29">
         <v>143</v>
       </c>
-      <c r="J8" s="29">
+      <c r="K8" s="29">
         <v>159</v>
       </c>
-      <c r="K8" s="29">
+      <c r="L8" s="29">
+        <v>152</v>
+      </c>
+      <c r="M8" s="29">
         <v>151</v>
       </c>
-      <c r="L8" s="15">
+      <c r="N8" s="15">
         <v>150</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>150</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>147</v>
       </c>
-      <c r="O8" s="5">
+      <c r="Q8" s="5">
         <v>143</v>
       </c>
-      <c r="P8" s="25">
+      <c r="R8" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1572,28 +1646,34 @@
         <v>144</v>
       </c>
       <c r="J9" s="29">
+        <v>144</v>
+      </c>
+      <c r="K9" s="29">
         <v>157</v>
       </c>
-      <c r="K9" s="29">
+      <c r="L9" s="29">
+        <v>152</v>
+      </c>
+      <c r="M9" s="29">
         <v>149</v>
       </c>
-      <c r="L9" s="15">
+      <c r="N9" s="15">
         <v>150</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>150</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>150</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q9" s="5">
         <v>146</v>
       </c>
-      <c r="P9" s="25">
+      <c r="R9" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1622,28 +1702,34 @@
         <v>143</v>
       </c>
       <c r="J10" s="29">
+        <v>143</v>
+      </c>
+      <c r="K10" s="29">
         <v>160</v>
       </c>
-      <c r="K10" s="29">
+      <c r="L10" s="29">
         <v>152</v>
       </c>
-      <c r="L10" s="15">
+      <c r="M10" s="29">
+        <v>152</v>
+      </c>
+      <c r="N10" s="15">
         <v>150</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>150</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>150</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <v>139</v>
       </c>
-      <c r="P10" s="25">
+      <c r="R10" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1657,15 +1743,17 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="25">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1691,31 +1779,37 @@
         <v>13</v>
       </c>
       <c r="I12" s="29">
+        <v>14</v>
+      </c>
+      <c r="J12" s="29">
         <v>31</v>
       </c>
-      <c r="J12" s="29">
+      <c r="K12" s="29">
         <v>15</v>
       </c>
-      <c r="K12" s="29">
+      <c r="L12" s="29">
+        <v>13</v>
+      </c>
+      <c r="M12" s="29">
         <v>26</v>
       </c>
-      <c r="L12" s="15">
+      <c r="N12" s="15">
         <v>31</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>45</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>40</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <v>39</v>
       </c>
-      <c r="P12" s="25">
+      <c r="R12" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1741,31 +1835,37 @@
         <v>15</v>
       </c>
       <c r="I13" s="29">
+        <v>13</v>
+      </c>
+      <c r="J13" s="29">
         <v>36</v>
       </c>
-      <c r="J13" s="29">
+      <c r="K13" s="29">
         <v>18</v>
       </c>
-      <c r="K13" s="29">
+      <c r="L13" s="29">
+        <v>14</v>
+      </c>
+      <c r="M13" s="29">
         <v>23</v>
       </c>
-      <c r="L13" s="15">
+      <c r="N13" s="15">
         <v>26</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>32</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>40</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <v>52</v>
       </c>
-      <c r="P13" s="25">
+      <c r="R13" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1791,31 +1891,37 @@
         <v>17</v>
       </c>
       <c r="I14" s="29">
+        <v>11</v>
+      </c>
+      <c r="J14" s="29">
         <v>33</v>
       </c>
-      <c r="J14" s="29">
+      <c r="K14" s="29">
         <v>15</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L14" s="29">
+        <v>13</v>
+      </c>
+      <c r="M14" s="29">
         <v>25</v>
       </c>
-      <c r="L14" s="15">
+      <c r="N14" s="15">
         <v>27</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>34</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>43</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <v>52</v>
       </c>
-      <c r="P14" s="25">
+      <c r="R14" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1829,15 +1935,17 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="25">
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1863,31 +1971,37 @@
         <v>161</v>
       </c>
       <c r="I16" s="29">
+        <v>111</v>
+      </c>
+      <c r="J16" s="29">
         <v>169</v>
       </c>
-      <c r="J16" s="29">
+      <c r="K16" s="29">
         <v>157</v>
       </c>
-      <c r="K16" s="29">
+      <c r="L16" s="29">
+        <v>116</v>
+      </c>
+      <c r="M16" s="29">
         <v>148</v>
       </c>
-      <c r="L16" s="15">
+      <c r="N16" s="15">
         <v>115</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>126</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>122</v>
       </c>
-      <c r="O16" s="5">
+      <c r="Q16" s="5">
         <v>86</v>
       </c>
-      <c r="P16" s="25">
+      <c r="R16" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1913,31 +2027,37 @@
         <v>158</v>
       </c>
       <c r="I17" s="29">
+        <v>127</v>
+      </c>
+      <c r="J17" s="29">
         <v>162</v>
       </c>
-      <c r="J17" s="29">
+      <c r="K17" s="29">
         <v>150</v>
       </c>
-      <c r="K17" s="29">
+      <c r="L17" s="29">
+        <v>142</v>
+      </c>
+      <c r="M17" s="29">
         <v>158</v>
       </c>
-      <c r="L17" s="15">
+      <c r="N17" s="15">
         <v>115</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>132</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>122</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Q17" s="5">
         <v>115</v>
       </c>
-      <c r="P17" s="25">
+      <c r="R17" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1963,36 +2083,42 @@
         <v>162</v>
       </c>
       <c r="I18" s="27">
+        <v>118</v>
+      </c>
+      <c r="J18" s="27">
         <v>155</v>
       </c>
-      <c r="J18" s="27">
+      <c r="K18" s="27">
         <v>152</v>
       </c>
-      <c r="K18" s="27">
+      <c r="L18" s="27">
+        <v>138</v>
+      </c>
+      <c r="M18" s="27">
         <v>144</v>
       </c>
-      <c r="L18" s="16">
+      <c r="N18" s="16">
         <v>125</v>
       </c>
-      <c r="M18" s="8">
+      <c r="O18" s="8">
         <v>128</v>
       </c>
-      <c r="N18" s="8">
+      <c r="P18" s="8">
         <v>109</v>
       </c>
-      <c r="O18" s="9">
+      <c r="Q18" s="9">
         <v>95</v>
       </c>
-      <c r="P18" s="26">
+      <c r="R18" s="26">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2004,6 +2130,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2212,15 +2347,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2228,6 +2354,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2242,14 +2376,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE937D-4D44-445E-BB6B-C951CFC0FE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3102A-370A-4F13-8927-E1F8150CAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>dataset</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>3x2 col2</t>
+  </si>
+  <si>
+    <t>3x3 unit4</t>
+  </si>
+  <si>
+    <t>3x3 unit5</t>
+  </si>
+  <si>
+    <t>3x3 col3</t>
+  </si>
+  <si>
+    <t>3x2 col3</t>
+  </si>
+  <si>
+    <t>3x3 col4</t>
+  </si>
+  <si>
+    <t>3x2 col4</t>
+  </si>
+  <si>
+    <t>dilat-eros-eros-dilat</t>
+  </si>
+  <si>
+    <t>eros-dilat-dilat-eros</t>
   </si>
 </sst>
 </file>
@@ -467,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -498,6 +522,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,7 +538,63 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -620,6 +703,34 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -901,8 +1012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:R18" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A2:R18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:X18" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A2:X18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -921,26 +1032,38 @@
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{A0558FA7-C629-4D37-AF8A-5AFA679C3F74}" name="3x2 col" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{61AE01E0-46B1-4BDB-B74F-B23A8F430321}" name="3x2 col2" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="2"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{A0558FA7-C629-4D37-AF8A-5AFA679C3F74}" name="3x2 col" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{61AE01E0-46B1-4BDB-B74F-B23A8F430321}" name="3x2 col2" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{9F830409-13A2-491C-A58C-E4BEDAD638A7}" name="3x3 col3" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{AD16FDBE-21D5-49C4-97C5-10D228B51BAC}" name="3x2 col3" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{07312A6B-963C-4ABF-ABDE-08597A019F94}" name="3x3 unit5" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{1B8D6485-2B10-4389-9F94-44E973980AB8}" name="3x3 col4" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{614B5C69-EA6C-4F90-8D28-AAFD54379CF2}" name="3x2 col4" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{0C48FFB1-C05C-40F6-BAD2-015512B54526}" name="3x3 unit4" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1243,53 +1366,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" customWidth="1"/>
+    <col min="20" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="23"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1329,23 +1464,41 @@
       <c r="M2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1361,15 +1514,21 @@
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="25">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1377,55 +1536,67 @@
         <v>3</v>
       </c>
       <c r="C4" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="19">
+        <v>25</v>
+      </c>
+      <c r="H4" s="29">
+        <v>35</v>
+      </c>
+      <c r="I4" s="29">
+        <v>28</v>
+      </c>
+      <c r="J4" s="29">
+        <v>38</v>
+      </c>
+      <c r="K4" s="29">
+        <v>33</v>
+      </c>
+      <c r="L4" s="29">
         <v>26</v>
       </c>
-      <c r="H4" s="29">
-        <v>36</v>
-      </c>
-      <c r="I4" s="29">
+      <c r="M4" s="29">
+        <v>40</v>
+      </c>
+      <c r="N4" s="29">
+        <v>38</v>
+      </c>
+      <c r="O4" s="29">
+        <v>30</v>
+      </c>
+      <c r="P4" s="29">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="15">
         <v>29</v>
       </c>
-      <c r="J4" s="29">
-        <v>37</v>
-      </c>
-      <c r="K4" s="29">
-        <v>32</v>
-      </c>
-      <c r="L4" s="29">
+      <c r="U4" s="1">
         <v>30</v>
       </c>
-      <c r="M4" s="29">
-        <v>38</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="V4" s="1">
+        <v>30</v>
+      </c>
+      <c r="W4" s="5">
         <v>29</v>
       </c>
-      <c r="O4" s="1">
+      <c r="X4" s="25">
         <v>30</v>
       </c>
-      <c r="P4" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>29</v>
-      </c>
-      <c r="R4" s="25">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1465,23 +1636,29 @@
       <c r="M5" s="29">
         <v>37</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="15">
         <v>31</v>
       </c>
-      <c r="O5" s="1">
+      <c r="U5" s="1">
         <v>32</v>
       </c>
-      <c r="P5" s="1">
+      <c r="V5" s="1">
         <v>28</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="W5" s="5">
         <v>33</v>
       </c>
-      <c r="R5" s="25">
+      <c r="X5" s="25">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1521,23 +1698,29 @@
       <c r="M6" s="29">
         <v>37</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="15">
         <v>30</v>
       </c>
-      <c r="O6" s="1">
+      <c r="U6" s="1">
         <v>31</v>
       </c>
-      <c r="P6" s="1">
+      <c r="V6" s="1">
         <v>34</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="W6" s="5">
         <v>27</v>
       </c>
-      <c r="R6" s="25">
+      <c r="X6" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1553,15 +1736,21 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="25">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1601,23 +1790,29 @@
       <c r="M8" s="29">
         <v>151</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="15">
         <v>150</v>
       </c>
-      <c r="O8" s="1">
+      <c r="U8" s="1">
         <v>150</v>
       </c>
-      <c r="P8" s="1">
+      <c r="V8" s="1">
         <v>147</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="W8" s="5">
         <v>143</v>
       </c>
-      <c r="R8" s="25">
+      <c r="X8" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1657,23 +1852,29 @@
       <c r="M9" s="29">
         <v>149</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="15">
         <v>150</v>
       </c>
-      <c r="O9" s="1">
+      <c r="U9" s="1">
         <v>150</v>
       </c>
-      <c r="P9" s="1">
+      <c r="V9" s="1">
         <v>150</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="W9" s="5">
         <v>146</v>
       </c>
-      <c r="R9" s="25">
+      <c r="X9" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1713,23 +1914,29 @@
       <c r="M10" s="29">
         <v>152</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="15">
         <v>150</v>
       </c>
-      <c r="O10" s="1">
+      <c r="U10" s="1">
         <v>150</v>
       </c>
-      <c r="P10" s="1">
+      <c r="V10" s="1">
         <v>150</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="W10" s="5">
         <v>139</v>
       </c>
-      <c r="R10" s="25">
+      <c r="X10" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1745,15 +1952,21 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="25">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1793,23 +2006,29 @@
       <c r="M12" s="29">
         <v>26</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="15">
         <v>31</v>
       </c>
-      <c r="O12" s="1">
+      <c r="U12" s="1">
         <v>45</v>
       </c>
-      <c r="P12" s="1">
+      <c r="V12" s="1">
         <v>40</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="W12" s="5">
         <v>39</v>
       </c>
-      <c r="R12" s="25">
+      <c r="X12" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1849,23 +2068,29 @@
       <c r="M13" s="29">
         <v>23</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="15">
         <v>26</v>
       </c>
-      <c r="O13" s="1">
+      <c r="U13" s="1">
         <v>32</v>
       </c>
-      <c r="P13" s="1">
+      <c r="V13" s="1">
         <v>40</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="W13" s="5">
         <v>52</v>
       </c>
-      <c r="R13" s="25">
+      <c r="X13" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1905,23 +2130,29 @@
       <c r="M14" s="29">
         <v>25</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="15">
         <v>27</v>
       </c>
-      <c r="O14" s="1">
+      <c r="U14" s="1">
         <v>34</v>
       </c>
-      <c r="P14" s="1">
+      <c r="V14" s="1">
         <v>43</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="W14" s="5">
         <v>52</v>
       </c>
-      <c r="R14" s="25">
+      <c r="X14" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1937,15 +2168,21 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="25">
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1985,23 +2222,29 @@
       <c r="M16" s="29">
         <v>148</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="15">
         <v>115</v>
       </c>
-      <c r="O16" s="1">
+      <c r="U16" s="1">
         <v>126</v>
       </c>
-      <c r="P16" s="1">
+      <c r="V16" s="1">
         <v>122</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="W16" s="5">
         <v>86</v>
       </c>
-      <c r="R16" s="25">
+      <c r="X16" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2041,23 +2284,29 @@
       <c r="M17" s="29">
         <v>158</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="15">
         <v>115</v>
       </c>
-      <c r="O17" s="1">
+      <c r="U17" s="1">
         <v>132</v>
       </c>
-      <c r="P17" s="1">
+      <c r="V17" s="1">
         <v>122</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="W17" s="5">
         <v>115</v>
       </c>
-      <c r="R17" s="25">
+      <c r="X17" s="25">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -2097,25 +2346,31 @@
       <c r="M18" s="27">
         <v>144</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="16">
         <v>125</v>
       </c>
-      <c r="O18" s="8">
+      <c r="U18" s="8">
         <v>128</v>
       </c>
-      <c r="P18" s="8">
+      <c r="V18" s="8">
         <v>109</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="W18" s="9">
         <v>95</v>
       </c>
-      <c r="R18" s="26">
+      <c r="X18" s="26">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -2130,15 +2385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2347,6 +2593,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2354,14 +2609,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2376,6 +2623,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/vysledky-mazani.xlsx
+++ b/data/vysledky-mazani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\bakalarska-prace\bakalarska-prace\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3102A-370A-4F13-8927-E1F8150CAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461926D-EEB3-414D-B4AB-B7336F15E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC789BC-E248-4C1E-B58B-9660197E393A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>dataset</t>
   </si>
@@ -148,6 +148,12 @@
   <si>
     <t>eros-dilat-dilat-eros</t>
   </si>
+  <si>
+    <t>barycenter-bfp</t>
+  </si>
+  <si>
+    <t>barycenter-bfp-alternating</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -373,47 +379,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -487,14 +452,483 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -502,29 +936,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +952,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -542,7 +1017,171 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -569,7 +1208,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -584,7 +1225,9 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -592,7 +1235,9 @@
           <color indexed="64"/>
         </bottom>
         <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -606,12 +1251,16 @@
           <color indexed="64"/>
         </bottom>
         <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -620,7 +1269,9 @@
           <color indexed="64"/>
         </bottom>
         <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -745,138 +1396,6 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1012,8 +1531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:X18" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A2:X18" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}" name="Tabulka2" displayName="Tabulka2" ref="A2:X26" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A2:X26" xr:uid="{36B91720-324F-4249-9D87-9FB5088C2BBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1042,28 +1561,28 @@
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{27762300-EECA-4A09-9AD5-9D7512ED754D}" name="dataset" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{9EA2270C-6ACC-46D7-A881-6B3D3528A0D0}" name="metoda" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{A0558FA7-C629-4D37-AF8A-5AFA679C3F74}" name="3x2 col" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{61AE01E0-46B1-4BDB-B74F-B23A8F430321}" name="3x2 col2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{9F830409-13A2-491C-A58C-E4BEDAD638A7}" name="3x3 col3" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{AD16FDBE-21D5-49C4-97C5-10D228B51BAC}" name="3x2 col3" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{07312A6B-963C-4ABF-ABDE-08597A019F94}" name="3x3 unit5" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{1B8D6485-2B10-4389-9F94-44E973980AB8}" name="3x3 col4" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{614B5C69-EA6C-4F90-8D28-AAFD54379CF2}" name="3x2 col4" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{0C48FFB1-C05C-40F6-BAD2-015512B54526}" name="3x3 unit4" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AD6F6BE4-255F-44A1-A2C9-E2B8D74F69B3}" name="0.2" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{F5229BB4-A6A7-49F4-A07F-AC8B062971B5}" name="0.3" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{1F19A5EF-E204-4D92-B38D-116E0475765D}" name="0.35" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{98FB4315-9688-46ED-B0EB-08DE5D450D9E}" name="0.4" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8B790170-1CF7-45F9-968E-81C815D57C56}" name="0.5" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{D9CEDABA-512A-469C-9727-4CAB25112924}" name="3x3 col" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{A0558FA7-C629-4D37-AF8A-5AFA679C3F74}" name="3x2 col" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{4C823DAC-7075-4E01-B708-479BD224C0E8}" name="3x3 unit" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{16FF2237-16D1-487F-A305-73FF73551DCD}" name="3x3 col2" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{61AE01E0-46B1-4BDB-B74F-B23A8F430321}" name="3x2 col2" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{524875B6-D135-4CDA-8A53-EBD2497EF7A7}" name="3x3 unit2" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{9F830409-13A2-491C-A58C-E4BEDAD638A7}" name="3x3 col3" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{AD16FDBE-21D5-49C4-97C5-10D228B51BAC}" name="3x2 col3" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{07312A6B-963C-4ABF-ABDE-08597A019F94}" name="3x3 unit5" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{1B8D6485-2B10-4389-9F94-44E973980AB8}" name="3x3 col4" dataDxfId="21"/>
+    <tableColumn id="29" xr3:uid="{614B5C69-EA6C-4F90-8D28-AAFD54379CF2}" name="3x2 col4" dataDxfId="20"/>
+    <tableColumn id="30" xr3:uid="{0C48FFB1-C05C-40F6-BAD2-015512B54526}" name="3x3 unit4" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0F22BD4B-5BC6-4D1B-BEAD-09DC28D16FEC}" name="30%" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BB95C2BA-9351-414D-B36B-1C64C935E46D}" name="50%" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{065AAAC9-38C5-47B3-B8DB-4AF902DEBA4E}" name="70%" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{40A314C2-A9ED-4C94-AB7F-0B7A07A233F8}" name="90%" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{AACE5453-1EF4-49C9-856C-2E13D93044EA}" name="původní" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1366,15 +1885,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18BC53-8D4E-4913-BFBB-2CAE486F5D55}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -1389,991 +1908,1723 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="31" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="23"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="11"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="58">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="42">
         <v>38</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="43">
         <v>34</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="43">
         <v>31</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="43">
         <v>31</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="44">
         <v>25</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="45">
+        <v>33</v>
+      </c>
+      <c r="I4" s="20">
+        <v>26</v>
+      </c>
+      <c r="J4" s="46">
+        <v>40</v>
+      </c>
+      <c r="K4" s="45">
         <v>35</v>
       </c>
-      <c r="I4" s="29">
+      <c r="L4" s="20">
         <v>28</v>
       </c>
-      <c r="J4" s="29">
+      <c r="M4" s="46">
         <v>38</v>
       </c>
-      <c r="K4" s="29">
-        <v>33</v>
-      </c>
-      <c r="L4" s="29">
+      <c r="N4" s="20">
+        <v>38</v>
+      </c>
+      <c r="O4" s="20">
+        <v>30</v>
+      </c>
+      <c r="P4" s="46">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>34</v>
+      </c>
+      <c r="R4" s="20">
         <v>26</v>
       </c>
-      <c r="M4" s="29">
-        <v>40</v>
-      </c>
-      <c r="N4" s="29">
-        <v>38</v>
-      </c>
-      <c r="O4" s="29">
+      <c r="S4" s="20">
+        <v>39</v>
+      </c>
+      <c r="T4" s="47">
+        <v>29</v>
+      </c>
+      <c r="U4" s="43">
         <v>30</v>
       </c>
-      <c r="P4" s="29">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="15">
+      <c r="V4" s="43">
+        <v>30</v>
+      </c>
+      <c r="W4" s="19">
         <v>29</v>
       </c>
-      <c r="U4" s="1">
-        <v>30</v>
-      </c>
-      <c r="V4" s="1">
-        <v>30</v>
-      </c>
-      <c r="W4" s="5">
-        <v>29</v>
-      </c>
-      <c r="X4" s="25">
+      <c r="X4" s="48">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="30">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36</v>
+      </c>
+      <c r="G5" s="31">
+        <v>28</v>
+      </c>
+      <c r="H5" s="22">
         <v>39</v>
       </c>
-      <c r="D5" s="1">
+      <c r="I5" s="15">
+        <v>30</v>
+      </c>
+      <c r="J5" s="23">
+        <v>32</v>
+      </c>
+      <c r="K5" s="22">
+        <v>38</v>
+      </c>
+      <c r="L5" s="15">
+        <v>27</v>
+      </c>
+      <c r="M5" s="23">
+        <v>38</v>
+      </c>
+      <c r="N5" s="15">
+        <v>38</v>
+      </c>
+      <c r="O5" s="15">
+        <v>28</v>
+      </c>
+      <c r="P5" s="23">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>39</v>
+      </c>
+      <c r="R5" s="15">
+        <v>24</v>
+      </c>
+      <c r="S5" s="15">
+        <v>35</v>
+      </c>
+      <c r="T5" s="9">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1">
+        <v>30</v>
+      </c>
+      <c r="V5" s="1">
         <v>31</v>
       </c>
-      <c r="E5" s="1">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1">
-        <v>34</v>
-      </c>
-      <c r="G5" s="19">
-        <v>28</v>
-      </c>
-      <c r="H5" s="29">
-        <v>36</v>
-      </c>
-      <c r="I5" s="29">
-        <v>29</v>
-      </c>
-      <c r="J5" s="29">
-        <v>38</v>
-      </c>
-      <c r="K5" s="29">
-        <v>37</v>
-      </c>
-      <c r="L5" s="29">
-        <v>29</v>
-      </c>
-      <c r="M5" s="29">
-        <v>37</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="15">
-        <v>31</v>
-      </c>
-      <c r="U5" s="1">
-        <v>32</v>
-      </c>
-      <c r="V5" s="1">
-        <v>28</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>33</v>
       </c>
-      <c r="X5" s="25">
-        <v>31</v>
+      <c r="X5" s="12">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>41</v>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30">
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>31</v>
       </c>
       <c r="E6" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
-        <v>24</v>
-      </c>
-      <c r="G6" s="19">
-        <v>23</v>
-      </c>
-      <c r="H6" s="29">
+        <v>34</v>
+      </c>
+      <c r="G6" s="31">
+        <v>28</v>
+      </c>
+      <c r="H6" s="22">
+        <v>36</v>
+      </c>
+      <c r="I6" s="15">
+        <v>29</v>
+      </c>
+      <c r="J6" s="23">
+        <v>38</v>
+      </c>
+      <c r="K6" s="22">
         <v>37</v>
       </c>
-      <c r="I6" s="29">
-        <v>25</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="L6" s="15">
+        <v>29</v>
+      </c>
+      <c r="M6" s="23">
+        <v>37</v>
+      </c>
+      <c r="N6" s="15">
+        <v>35</v>
+      </c>
+      <c r="O6" s="15">
+        <v>28</v>
+      </c>
+      <c r="P6" s="23">
         <v>40</v>
       </c>
-      <c r="K6" s="29">
+      <c r="Q6" s="15">
+        <v>36</v>
+      </c>
+      <c r="R6" s="15">
+        <v>26</v>
+      </c>
+      <c r="S6" s="15">
+        <v>38</v>
+      </c>
+      <c r="T6" s="9">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1">
+        <v>32</v>
+      </c>
+      <c r="V6" s="1">
+        <v>28</v>
+      </c>
+      <c r="W6" s="1">
         <v>33</v>
       </c>
-      <c r="L6" s="29">
-        <v>28</v>
-      </c>
-      <c r="M6" s="29">
-        <v>37</v>
-      </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="15">
-        <v>30</v>
-      </c>
-      <c r="U6" s="1">
-        <v>31</v>
-      </c>
-      <c r="V6" s="1">
-        <v>34</v>
-      </c>
-      <c r="W6" s="5">
-        <v>27</v>
-      </c>
-      <c r="X6" s="25">
+      <c r="X6" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="30">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="G7" s="31">
+        <v>28</v>
+      </c>
+      <c r="H7" s="22">
+        <v>39</v>
+      </c>
+      <c r="I7" s="15">
+        <v>30</v>
+      </c>
+      <c r="J7" s="23">
+        <v>31</v>
+      </c>
+      <c r="K7" s="22">
+        <v>38</v>
+      </c>
+      <c r="L7" s="15">
+        <v>29</v>
+      </c>
+      <c r="M7" s="23">
+        <v>32</v>
+      </c>
+      <c r="N7" s="15">
+        <v>38</v>
+      </c>
+      <c r="O7" s="15">
+        <v>28</v>
+      </c>
+      <c r="P7" s="23">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>39</v>
+      </c>
+      <c r="R7" s="15">
+        <v>27</v>
+      </c>
+      <c r="S7" s="15">
+        <v>33</v>
+      </c>
+      <c r="T7" s="9">
+        <v>31</v>
+      </c>
+      <c r="U7" s="1">
+        <v>31</v>
+      </c>
+      <c r="V7" s="1">
+        <v>30</v>
+      </c>
+      <c r="W7" s="1">
+        <v>26</v>
+      </c>
+      <c r="X7" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7">
+        <v>28</v>
+      </c>
+      <c r="G8" s="36">
+        <v>21</v>
+      </c>
+      <c r="H8" s="37">
+        <v>33</v>
+      </c>
+      <c r="I8" s="14">
+        <v>31</v>
+      </c>
+      <c r="J8" s="38">
+        <v>37</v>
+      </c>
+      <c r="K8" s="37">
+        <v>35</v>
+      </c>
+      <c r="L8" s="14">
+        <v>26</v>
+      </c>
+      <c r="M8" s="38">
+        <v>39</v>
+      </c>
+      <c r="N8" s="14">
+        <v>34</v>
+      </c>
+      <c r="O8" s="14">
+        <v>28</v>
+      </c>
+      <c r="P8" s="38">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>34</v>
+      </c>
+      <c r="R8" s="14">
+        <v>30</v>
+      </c>
+      <c r="S8" s="14">
+        <v>41</v>
+      </c>
+      <c r="T8" s="10">
+        <v>31</v>
+      </c>
+      <c r="U8" s="7">
+        <v>29</v>
+      </c>
+      <c r="V8" s="7">
+        <v>27</v>
+      </c>
+      <c r="W8" s="8">
+        <v>25</v>
+      </c>
+      <c r="X8" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15">
-        <v>192</v>
-      </c>
-      <c r="D8" s="1">
-        <v>170</v>
-      </c>
-      <c r="E8" s="1">
-        <v>146</v>
-      </c>
-      <c r="F8" s="1">
-        <v>146</v>
-      </c>
-      <c r="G8" s="19">
-        <v>121</v>
-      </c>
-      <c r="H8" s="29">
-        <v>176</v>
-      </c>
-      <c r="I8" s="29">
-        <v>146</v>
-      </c>
-      <c r="J8" s="29">
-        <v>143</v>
-      </c>
-      <c r="K8" s="29">
-        <v>159</v>
-      </c>
-      <c r="L8" s="29">
-        <v>152</v>
-      </c>
-      <c r="M8" s="29">
-        <v>151</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="15">
-        <v>150</v>
-      </c>
-      <c r="U8" s="1">
-        <v>150</v>
-      </c>
-      <c r="V8" s="1">
-        <v>147</v>
-      </c>
-      <c r="W8" s="5">
-        <v>143</v>
-      </c>
-      <c r="X8" s="25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15">
-        <v>195</v>
-      </c>
-      <c r="D9" s="1">
-        <v>176</v>
-      </c>
-      <c r="E9" s="1">
-        <v>162</v>
-      </c>
-      <c r="F9" s="1">
-        <v>162</v>
-      </c>
-      <c r="G9" s="19">
-        <v>126</v>
-      </c>
-      <c r="H9" s="29">
-        <v>175</v>
-      </c>
-      <c r="I9" s="29">
-        <v>144</v>
-      </c>
-      <c r="J9" s="29">
-        <v>144</v>
-      </c>
-      <c r="K9" s="29">
-        <v>157</v>
-      </c>
-      <c r="L9" s="29">
-        <v>152</v>
-      </c>
-      <c r="M9" s="29">
-        <v>149</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="15">
-        <v>150</v>
-      </c>
-      <c r="U9" s="1">
-        <v>150</v>
-      </c>
-      <c r="V9" s="1">
-        <v>150</v>
-      </c>
-      <c r="W9" s="5">
-        <v>146</v>
-      </c>
-      <c r="X9" s="25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="58">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
-        <v>192</v>
-      </c>
-      <c r="D10" s="1">
-        <v>173</v>
-      </c>
-      <c r="E10" s="1">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1">
-        <v>139</v>
-      </c>
-      <c r="G10" s="19">
-        <v>101</v>
-      </c>
-      <c r="H10" s="29">
-        <v>177</v>
-      </c>
-      <c r="I10" s="29">
-        <v>143</v>
-      </c>
-      <c r="J10" s="29">
-        <v>143</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="42">
+        <v>194</v>
+      </c>
+      <c r="D10" s="43">
+        <v>182</v>
+      </c>
+      <c r="E10" s="43">
+        <v>153</v>
+      </c>
+      <c r="F10" s="43">
+        <v>153</v>
+      </c>
+      <c r="G10" s="44">
+        <v>127</v>
+      </c>
+      <c r="H10" s="45">
+        <v>174</v>
+      </c>
+      <c r="I10" s="20">
+        <v>155</v>
+      </c>
+      <c r="J10" s="46">
+        <v>142</v>
+      </c>
+      <c r="K10" s="45">
+        <v>156</v>
+      </c>
+      <c r="L10" s="20">
+        <v>155</v>
+      </c>
+      <c r="M10" s="46">
+        <v>151</v>
+      </c>
+      <c r="N10" s="20">
+        <v>185</v>
+      </c>
+      <c r="O10" s="20">
         <v>160</v>
       </c>
-      <c r="L10" s="29">
-        <v>152</v>
-      </c>
-      <c r="M10" s="29">
-        <v>152</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="15">
-        <v>150</v>
-      </c>
-      <c r="U10" s="1">
-        <v>150</v>
-      </c>
-      <c r="V10" s="1">
-        <v>150</v>
-      </c>
-      <c r="W10" s="5">
-        <v>139</v>
-      </c>
-      <c r="X10" s="25">
+      <c r="P10" s="46">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>176</v>
+      </c>
+      <c r="R10" s="20">
+        <v>156</v>
+      </c>
+      <c r="S10" s="20">
+        <v>142</v>
+      </c>
+      <c r="T10" s="47">
+        <v>149</v>
+      </c>
+      <c r="U10" s="43">
+        <v>148</v>
+      </c>
+      <c r="V10" s="43">
+        <v>148</v>
+      </c>
+      <c r="W10" s="19">
+        <v>141</v>
+      </c>
+      <c r="X10" s="48">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="25">
-        <v>15</v>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="30">
+        <v>195</v>
+      </c>
+      <c r="D11" s="1">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1">
+        <v>131</v>
+      </c>
+      <c r="G11" s="31">
+        <v>62</v>
+      </c>
+      <c r="H11" s="22">
+        <v>175</v>
+      </c>
+      <c r="I11" s="15">
+        <v>144</v>
+      </c>
+      <c r="J11" s="23">
+        <v>144</v>
+      </c>
+      <c r="K11" s="22">
+        <v>149</v>
+      </c>
+      <c r="L11" s="15">
+        <v>151</v>
+      </c>
+      <c r="M11" s="23">
+        <v>168</v>
+      </c>
+      <c r="N11" s="15">
+        <v>145</v>
+      </c>
+      <c r="O11" s="15">
+        <v>145</v>
+      </c>
+      <c r="P11" s="23">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>150</v>
+      </c>
+      <c r="R11" s="15">
+        <v>132</v>
+      </c>
+      <c r="S11" s="15">
+        <v>191</v>
+      </c>
+      <c r="T11" s="9">
+        <v>150</v>
+      </c>
+      <c r="U11" s="1">
+        <v>150</v>
+      </c>
+      <c r="V11" s="1">
+        <v>150</v>
+      </c>
+      <c r="W11" s="4">
+        <v>154</v>
+      </c>
+      <c r="X11" s="12">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="15">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="30">
+        <v>195</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1">
-        <v>18</v>
-      </c>
-      <c r="G12" s="19">
-        <v>14</v>
-      </c>
-      <c r="H12" s="29">
-        <v>13</v>
-      </c>
-      <c r="I12" s="29">
-        <v>14</v>
-      </c>
-      <c r="J12" s="29">
-        <v>31</v>
-      </c>
-      <c r="K12" s="29">
-        <v>15</v>
-      </c>
-      <c r="L12" s="29">
-        <v>13</v>
-      </c>
-      <c r="M12" s="29">
-        <v>26</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="15">
-        <v>31</v>
+        <v>162</v>
+      </c>
+      <c r="G12" s="31">
+        <v>126</v>
+      </c>
+      <c r="H12" s="22">
+        <v>175</v>
+      </c>
+      <c r="I12" s="15">
+        <v>144</v>
+      </c>
+      <c r="J12" s="23">
+        <v>144</v>
+      </c>
+      <c r="K12" s="22">
+        <v>157</v>
+      </c>
+      <c r="L12" s="15">
+        <v>152</v>
+      </c>
+      <c r="M12" s="23">
+        <v>149</v>
+      </c>
+      <c r="N12" s="22">
+        <v>196</v>
+      </c>
+      <c r="O12" s="15">
+        <v>154</v>
+      </c>
+      <c r="P12" s="23">
+        <v>156</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>180</v>
+      </c>
+      <c r="R12" s="15">
+        <v>145</v>
+      </c>
+      <c r="S12" s="15">
+        <v>143</v>
+      </c>
+      <c r="T12" s="9">
+        <v>150</v>
       </c>
       <c r="U12" s="1">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="V12" s="1">
-        <v>40</v>
-      </c>
-      <c r="W12" s="5">
-        <v>39</v>
-      </c>
-      <c r="X12" s="25">
-        <v>15</v>
+        <v>150</v>
+      </c>
+      <c r="W12" s="1">
+        <v>146</v>
+      </c>
+      <c r="X12" s="12">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="30">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1">
+        <v>180</v>
+      </c>
+      <c r="E13" s="1">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1">
+        <v>152</v>
+      </c>
+      <c r="G13" s="31">
+        <v>122</v>
+      </c>
+      <c r="H13" s="22">
+        <v>157</v>
+      </c>
+      <c r="I13" s="15">
+        <v>151</v>
+      </c>
+      <c r="J13" s="23">
+        <v>158</v>
+      </c>
+      <c r="K13" s="22">
+        <v>142</v>
+      </c>
+      <c r="L13" s="15">
+        <v>147</v>
+      </c>
+      <c r="M13" s="23">
+        <v>175</v>
+      </c>
+      <c r="N13" s="22">
+        <v>145</v>
+      </c>
+      <c r="O13" s="15">
+        <v>149</v>
+      </c>
+      <c r="P13" s="23">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>144</v>
+      </c>
+      <c r="R13" s="15">
+        <v>144</v>
+      </c>
+      <c r="S13" s="15">
+        <v>180</v>
+      </c>
+      <c r="T13" s="9">
+        <v>151</v>
+      </c>
+      <c r="U13" s="1">
+        <v>150</v>
+      </c>
+      <c r="V13" s="1">
+        <v>146</v>
+      </c>
+      <c r="W13" s="1">
+        <v>132</v>
+      </c>
+      <c r="X13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="35">
+        <v>184</v>
+      </c>
+      <c r="D14" s="7">
+        <v>163</v>
+      </c>
+      <c r="E14" s="7">
+        <v>125</v>
+      </c>
+      <c r="F14" s="7">
+        <v>125</v>
+      </c>
+      <c r="G14" s="36">
+        <v>88</v>
+      </c>
+      <c r="H14" s="37">
+        <v>155</v>
+      </c>
+      <c r="I14" s="14">
+        <v>154</v>
+      </c>
+      <c r="J14" s="38">
+        <v>146</v>
+      </c>
+      <c r="K14" s="37">
+        <v>169</v>
+      </c>
+      <c r="L14" s="14">
+        <v>149</v>
+      </c>
+      <c r="M14" s="38">
+        <v>140</v>
+      </c>
+      <c r="N14" s="14">
+        <v>187</v>
+      </c>
+      <c r="O14" s="14">
+        <v>157</v>
+      </c>
+      <c r="P14" s="38">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>176</v>
+      </c>
+      <c r="R14" s="14">
+        <v>146</v>
+      </c>
+      <c r="S14" s="14">
+        <v>141</v>
+      </c>
+      <c r="T14" s="10">
+        <v>149</v>
+      </c>
+      <c r="U14" s="7">
+        <v>147</v>
+      </c>
+      <c r="V14" s="7">
+        <v>148</v>
+      </c>
+      <c r="W14" s="8">
+        <v>137</v>
+      </c>
+      <c r="X14" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19</v>
-      </c>
-      <c r="G13" s="19">
-        <v>17</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="58">
         <v>15</v>
-      </c>
-      <c r="I13" s="29">
-        <v>13</v>
-      </c>
-      <c r="J13" s="29">
-        <v>36</v>
-      </c>
-      <c r="K13" s="29">
-        <v>18</v>
-      </c>
-      <c r="L13" s="29">
-        <v>14</v>
-      </c>
-      <c r="M13" s="29">
-        <v>23</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="15">
-        <v>26</v>
-      </c>
-      <c r="U13" s="1">
-        <v>32</v>
-      </c>
-      <c r="V13" s="1">
-        <v>40</v>
-      </c>
-      <c r="W13" s="5">
-        <v>52</v>
-      </c>
-      <c r="X13" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1">
-        <v>18</v>
-      </c>
-      <c r="G14" s="19">
-        <v>14</v>
-      </c>
-      <c r="H14" s="29">
-        <v>17</v>
-      </c>
-      <c r="I14" s="29">
-        <v>11</v>
-      </c>
-      <c r="J14" s="29">
-        <v>33</v>
-      </c>
-      <c r="K14" s="29">
-        <v>15</v>
-      </c>
-      <c r="L14" s="29">
-        <v>13</v>
-      </c>
-      <c r="M14" s="29">
-        <v>25</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="15">
-        <v>27</v>
-      </c>
-      <c r="U14" s="1">
-        <v>34</v>
-      </c>
-      <c r="V14" s="1">
-        <v>43</v>
-      </c>
-      <c r="W14" s="5">
-        <v>52</v>
-      </c>
-      <c r="X14" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="25">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="15">
-        <v>165</v>
-      </c>
-      <c r="D16" s="1">
-        <v>148</v>
-      </c>
-      <c r="E16" s="1">
-        <v>138</v>
-      </c>
-      <c r="F16" s="1">
-        <v>138</v>
-      </c>
-      <c r="G16" s="19">
-        <v>133</v>
-      </c>
-      <c r="H16" s="29">
-        <v>161</v>
-      </c>
-      <c r="I16" s="29">
-        <v>111</v>
-      </c>
-      <c r="J16" s="29">
-        <v>169</v>
-      </c>
-      <c r="K16" s="29">
-        <v>157</v>
-      </c>
-      <c r="L16" s="29">
-        <v>116</v>
-      </c>
-      <c r="M16" s="29">
-        <v>148</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="15">
-        <v>115</v>
-      </c>
-      <c r="U16" s="1">
-        <v>126</v>
-      </c>
-      <c r="V16" s="1">
-        <v>122</v>
-      </c>
-      <c r="W16" s="5">
-        <v>86</v>
-      </c>
-      <c r="X16" s="25">
-        <v>112</v>
+      <c r="C16" s="42">
+        <v>20</v>
+      </c>
+      <c r="D16" s="43">
+        <v>15</v>
+      </c>
+      <c r="E16" s="43">
+        <v>12</v>
+      </c>
+      <c r="F16" s="43">
+        <v>12</v>
+      </c>
+      <c r="G16" s="44">
+        <v>11</v>
+      </c>
+      <c r="H16" s="45">
+        <v>16</v>
+      </c>
+      <c r="I16" s="20">
+        <v>12</v>
+      </c>
+      <c r="J16" s="46">
+        <v>29</v>
+      </c>
+      <c r="K16" s="45">
+        <v>19</v>
+      </c>
+      <c r="L16" s="20">
+        <v>13</v>
+      </c>
+      <c r="M16" s="46">
+        <v>23</v>
+      </c>
+      <c r="N16" s="20">
+        <v>12</v>
+      </c>
+      <c r="O16" s="20">
+        <v>10</v>
+      </c>
+      <c r="P16" s="46">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>13</v>
+      </c>
+      <c r="R16" s="20">
+        <v>11</v>
+      </c>
+      <c r="S16" s="20">
+        <v>35</v>
+      </c>
+      <c r="T16" s="47">
+        <v>23</v>
+      </c>
+      <c r="U16" s="43">
+        <v>40</v>
+      </c>
+      <c r="V16" s="43">
+        <v>43</v>
+      </c>
+      <c r="W16" s="19">
+        <v>39</v>
+      </c>
+      <c r="X16" s="48">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="15">
-        <v>175</v>
+      <c r="C17" s="30">
+        <v>23</v>
       </c>
       <c r="D17" s="1">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
-        <v>151</v>
-      </c>
-      <c r="G17" s="19">
-        <v>127</v>
-      </c>
-      <c r="H17" s="29">
-        <v>158</v>
-      </c>
-      <c r="I17" s="29">
-        <v>127</v>
-      </c>
-      <c r="J17" s="29">
-        <v>162</v>
-      </c>
-      <c r="K17" s="29">
-        <v>150</v>
-      </c>
-      <c r="L17" s="29">
-        <v>142</v>
-      </c>
-      <c r="M17" s="29">
-        <v>158</v>
-      </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="15">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="G17" s="31">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22">
+        <v>27</v>
+      </c>
+      <c r="I17" s="15">
+        <v>14</v>
+      </c>
+      <c r="J17" s="23">
+        <v>18</v>
+      </c>
+      <c r="K17" s="22">
+        <v>33</v>
+      </c>
+      <c r="L17" s="15">
+        <v>12</v>
+      </c>
+      <c r="M17" s="23">
+        <v>18</v>
+      </c>
+      <c r="N17" s="15">
+        <v>27</v>
+      </c>
+      <c r="O17" s="15">
+        <v>11</v>
+      </c>
+      <c r="P17" s="23">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>35</v>
+      </c>
+      <c r="R17" s="15">
+        <v>11</v>
+      </c>
+      <c r="S17" s="15">
+        <v>16</v>
+      </c>
+      <c r="T17" s="9">
+        <v>26</v>
       </c>
       <c r="U17" s="1">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="V17" s="1">
-        <v>122</v>
-      </c>
-      <c r="W17" s="5">
-        <v>115</v>
-      </c>
-      <c r="X17" s="25">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="W17" s="4">
+        <v>52</v>
+      </c>
+      <c r="X17" s="12">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="30">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="G18" s="31">
+        <v>17</v>
+      </c>
+      <c r="H18" s="22">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15">
+        <v>13</v>
+      </c>
+      <c r="J18" s="23">
+        <v>36</v>
+      </c>
+      <c r="K18" s="22">
+        <v>18</v>
+      </c>
+      <c r="L18" s="15">
+        <v>14</v>
+      </c>
+      <c r="M18" s="23">
+        <v>23</v>
+      </c>
+      <c r="N18" s="22">
+        <v>14</v>
+      </c>
+      <c r="O18" s="15">
+        <v>12</v>
+      </c>
+      <c r="P18" s="23">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>17</v>
+      </c>
+      <c r="R18" s="15">
+        <v>12</v>
+      </c>
+      <c r="S18" s="15">
+        <v>35</v>
+      </c>
+      <c r="T18" s="9">
+        <v>26</v>
+      </c>
+      <c r="U18" s="1">
+        <v>32</v>
+      </c>
+      <c r="V18" s="1">
+        <v>40</v>
+      </c>
+      <c r="W18" s="1">
+        <v>52</v>
+      </c>
+      <c r="X18" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="30">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="31">
+        <v>16</v>
+      </c>
+      <c r="H19" s="22">
+        <v>24</v>
+      </c>
+      <c r="I19" s="15">
+        <v>13</v>
+      </c>
+      <c r="J19" s="23">
+        <v>16</v>
+      </c>
+      <c r="K19" s="22">
+        <v>36</v>
+      </c>
+      <c r="L19" s="15">
+        <v>12</v>
+      </c>
+      <c r="M19" s="23">
+        <v>17</v>
+      </c>
+      <c r="N19" s="22">
+        <v>30</v>
+      </c>
+      <c r="O19" s="15">
+        <v>10</v>
+      </c>
+      <c r="P19" s="23">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>37</v>
+      </c>
+      <c r="R19" s="15">
+        <v>10</v>
+      </c>
+      <c r="S19" s="15">
+        <v>14</v>
+      </c>
+      <c r="T19" s="9">
+        <v>25</v>
+      </c>
+      <c r="U19" s="1">
+        <v>34</v>
+      </c>
+      <c r="V19" s="1">
+        <v>41</v>
+      </c>
+      <c r="W19" s="1">
+        <v>52</v>
+      </c>
+      <c r="X19" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="35">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20" s="36">
+        <v>14</v>
+      </c>
+      <c r="H20" s="37">
+        <v>15</v>
+      </c>
+      <c r="I20" s="14">
+        <v>13</v>
+      </c>
+      <c r="J20" s="38">
+        <v>26</v>
+      </c>
+      <c r="K20" s="37">
+        <v>18</v>
+      </c>
+      <c r="L20" s="14">
+        <v>12</v>
+      </c>
+      <c r="M20" s="38">
+        <v>31</v>
+      </c>
+      <c r="N20" s="14">
+        <v>10</v>
+      </c>
+      <c r="O20" s="14">
+        <v>10</v>
+      </c>
+      <c r="P20" s="38">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>11</v>
+      </c>
+      <c r="R20" s="14">
+        <v>10</v>
+      </c>
+      <c r="S20" s="14">
+        <v>33</v>
+      </c>
+      <c r="T20" s="10">
+        <v>26</v>
+      </c>
+      <c r="U20" s="7">
+        <v>39</v>
+      </c>
+      <c r="V20" s="7">
+        <v>47</v>
+      </c>
+      <c r="W20" s="8">
+        <v>39</v>
+      </c>
+      <c r="X20" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="58">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="42">
+        <v>165</v>
+      </c>
+      <c r="D22" s="43">
+        <v>155</v>
+      </c>
+      <c r="E22" s="43">
+        <v>143</v>
+      </c>
+      <c r="F22" s="43">
+        <v>143</v>
+      </c>
+      <c r="G22" s="44">
+        <v>129</v>
+      </c>
+      <c r="H22" s="45">
+        <v>164</v>
+      </c>
+      <c r="I22" s="20">
+        <v>118</v>
+      </c>
+      <c r="J22" s="46">
+        <v>160</v>
+      </c>
+      <c r="K22" s="45">
+        <v>155</v>
+      </c>
+      <c r="L22" s="20">
+        <v>123</v>
+      </c>
+      <c r="M22" s="46">
+        <v>155</v>
+      </c>
+      <c r="N22" s="20">
+        <v>161</v>
+      </c>
+      <c r="O22" s="20">
+        <v>123</v>
+      </c>
+      <c r="P22" s="46">
+        <v>163</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>162</v>
+      </c>
+      <c r="R22" s="20">
+        <v>117</v>
+      </c>
+      <c r="S22" s="20">
+        <v>158</v>
+      </c>
+      <c r="T22" s="47">
+        <v>123</v>
+      </c>
+      <c r="U22" s="43">
+        <v>127</v>
+      </c>
+      <c r="V22" s="43">
+        <v>117</v>
+      </c>
+      <c r="W22" s="19">
+        <v>91</v>
+      </c>
+      <c r="X22" s="48">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="30">
+        <v>166</v>
+      </c>
+      <c r="D23" s="1">
+        <v>156</v>
+      </c>
+      <c r="E23" s="1">
+        <v>137</v>
+      </c>
+      <c r="F23" s="1">
+        <v>137</v>
+      </c>
+      <c r="G23" s="31">
+        <v>104</v>
+      </c>
+      <c r="H23" s="22">
+        <v>156</v>
+      </c>
+      <c r="I23" s="15">
+        <v>135</v>
+      </c>
+      <c r="J23" s="23">
+        <v>154</v>
+      </c>
+      <c r="K23" s="22">
+        <v>149</v>
+      </c>
+      <c r="L23" s="15">
+        <v>116</v>
+      </c>
+      <c r="M23" s="23">
+        <v>160</v>
+      </c>
+      <c r="N23" s="15">
+        <v>157</v>
+      </c>
+      <c r="O23" s="15">
+        <v>130</v>
+      </c>
+      <c r="P23" s="23">
+        <v>174</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>153</v>
+      </c>
+      <c r="R23" s="15">
+        <v>114</v>
+      </c>
+      <c r="S23" s="15">
+        <v>167</v>
+      </c>
+      <c r="T23" s="9">
+        <v>114</v>
+      </c>
+      <c r="U23" s="1">
+        <v>128</v>
+      </c>
+      <c r="V23" s="1">
+        <v>124</v>
+      </c>
+      <c r="W23" s="4">
+        <v>134</v>
+      </c>
+      <c r="X23" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="30">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1">
+        <v>156</v>
+      </c>
+      <c r="E24" s="1">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1">
+        <v>151</v>
+      </c>
+      <c r="G24" s="31">
+        <v>127</v>
+      </c>
+      <c r="H24" s="22">
+        <v>158</v>
+      </c>
+      <c r="I24" s="15">
+        <v>127</v>
+      </c>
+      <c r="J24" s="23">
+        <v>162</v>
+      </c>
+      <c r="K24" s="22">
+        <v>150</v>
+      </c>
+      <c r="L24" s="15">
+        <v>142</v>
+      </c>
+      <c r="M24" s="23">
+        <v>158</v>
+      </c>
+      <c r="N24" s="22">
+        <v>165</v>
+      </c>
+      <c r="O24" s="15">
+        <v>147</v>
+      </c>
+      <c r="P24" s="23">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>162</v>
+      </c>
+      <c r="R24" s="15">
+        <v>129</v>
+      </c>
+      <c r="S24" s="15">
+        <v>169</v>
+      </c>
+      <c r="T24" s="9">
+        <v>115</v>
+      </c>
+      <c r="U24" s="1">
+        <v>132</v>
+      </c>
+      <c r="V24" s="1">
+        <v>122</v>
+      </c>
+      <c r="W24" s="1">
+        <v>115</v>
+      </c>
+      <c r="X24" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="30">
+        <v>176</v>
+      </c>
+      <c r="D25" s="1">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1">
+        <v>137</v>
+      </c>
+      <c r="F25" s="1">
+        <v>137</v>
+      </c>
+      <c r="G25" s="31">
+        <v>130</v>
+      </c>
+      <c r="H25" s="22">
+        <v>156</v>
+      </c>
+      <c r="I25" s="15">
+        <v>120</v>
+      </c>
+      <c r="J25" s="23">
+        <v>153</v>
+      </c>
+      <c r="K25" s="22">
+        <v>163</v>
+      </c>
+      <c r="L25" s="15">
+        <v>119</v>
+      </c>
+      <c r="M25" s="23">
+        <v>155</v>
+      </c>
+      <c r="N25" s="22">
+        <v>164</v>
+      </c>
+      <c r="O25" s="15">
+        <v>123</v>
+      </c>
+      <c r="P25" s="23">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>159</v>
+      </c>
+      <c r="R25" s="15">
+        <v>116</v>
+      </c>
+      <c r="S25" s="15">
+        <v>159</v>
+      </c>
+      <c r="T25" s="9">
+        <v>120</v>
+      </c>
+      <c r="U25" s="1">
+        <v>124</v>
+      </c>
+      <c r="V25" s="1">
+        <v>118</v>
+      </c>
+      <c r="W25" s="1">
+        <v>90</v>
+      </c>
+      <c r="X25" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C26" s="32">
         <v>144</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D26" s="33">
         <v>139</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E26" s="33">
         <v>39</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F26" s="33">
         <v>39</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G26" s="34">
         <v>30</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H26" s="24">
+        <v>152</v>
+      </c>
+      <c r="I26" s="25">
+        <v>138</v>
+      </c>
+      <c r="J26" s="26">
+        <v>144</v>
+      </c>
+      <c r="K26" s="24">
         <v>162</v>
       </c>
-      <c r="I18" s="27">
+      <c r="L26" s="25">
         <v>118</v>
       </c>
-      <c r="J18" s="27">
+      <c r="M26" s="26">
         <v>155</v>
       </c>
-      <c r="K18" s="27">
-        <v>152</v>
-      </c>
-      <c r="L18" s="27">
-        <v>138</v>
-      </c>
-      <c r="M18" s="27">
-        <v>144</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="16">
+      <c r="N26" s="25">
+        <v>170</v>
+      </c>
+      <c r="O26" s="25">
+        <v>127</v>
+      </c>
+      <c r="P26" s="26">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>168</v>
+      </c>
+      <c r="R26" s="14">
         <v>125</v>
       </c>
-      <c r="U18" s="8">
+      <c r="S26" s="14">
+        <v>156</v>
+      </c>
+      <c r="T26" s="10">
+        <v>125</v>
+      </c>
+      <c r="U26" s="7">
         <v>128</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V26" s="7">
         <v>109</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W26" s="8">
         <v>95</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X26" s="13">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2385,6 +3636,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BCBFF2982C0CB045A7EE06C9503D8796" ma:contentTypeVersion="11" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="11d6c1f5bf15e06027402a0a733460bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4323e199-edcb-4945-be5f-cca9371163df" xmlns:ns4="cfa1977f-9b9c-4d3d-b010-b84f5560bd13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91941e2baf353d5164072b22045d3f64" ns3:_="" ns4:_="">
     <xsd:import namespace="4323e199-edcb-4945-be5f-cca9371163df"/>
@@ -2593,15 +3853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2609,6 +3860,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAFC8AE-4DF9-49A0-8985-3743388CF25F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2623,14 +3882,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F070C89-41AB-42BF-BF26-4394BF9E3193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
